--- a/Kicad-Faraday/OutputFiles/Faraday-REVC(BOM).xlsx
+++ b/Kicad-Faraday/OutputFiles/Faraday-REVC(BOM).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="257">
   <si>
     <t>PTS645SM43SMTR92_LFS</t>
   </si>
@@ -96,9 +96,6 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>C12 C13 C16 C22 C42 C43 C46 C56 C57 C58</t>
-  </si>
-  <si>
     <t>470nF</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>C1 C3 C5 C31 C35 C41 C44 C47 C48 C49 C50 C51 C52 C53</t>
-  </si>
-  <si>
     <t>25V</t>
   </si>
   <si>
@@ -297,9 +291,6 @@
     <t>10K</t>
   </si>
   <si>
-    <t>R11 R15 R18 R20 R24 R25 R26 R27 R28 R29 R30</t>
-  </si>
-  <si>
     <t>33.2K</t>
   </si>
   <si>
@@ -579,9 +570,6 @@
     <t>LQW15AN7N5G00D</t>
   </si>
   <si>
-    <t>LQW15AN22NH00D</t>
-  </si>
-  <si>
     <t>Hand Solder</t>
   </si>
   <si>
@@ -681,9 +669,6 @@
     <t>490-6762-1-ND</t>
   </si>
   <si>
-    <t>490-6788-1-ND</t>
-  </si>
-  <si>
     <t>445-6395-1-ND</t>
   </si>
   <si>
@@ -783,7 +768,28 @@
     <t>568-7748-1-ND</t>
   </si>
   <si>
-    <t>R8 R17</t>
+    <t>C12 C13 C15 C16 C22 C42 C43 C46 C56 C57 C58</t>
+  </si>
+  <si>
+    <t>C1 C3 C5 C31 C35 C41 C44 C47 C49 C50 C51 C52 C53</t>
+  </si>
+  <si>
+    <t>C48</t>
+  </si>
+  <si>
+    <t>L0603</t>
+  </si>
+  <si>
+    <t>NETTIE</t>
+  </si>
+  <si>
+    <t>R8 R17 R25</t>
+  </si>
+  <si>
+    <t>R11 R15 R18 R20 R24 R26 R27 R28 R29 R30</t>
+  </si>
+  <si>
+    <t>74HCT1G14GV,125</t>
   </si>
 </sst>
 </file>
@@ -1671,1466 +1677,1475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="24.73046875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.46484375" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.53125" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" customWidth="1"/>
+    <col min="5" max="6" width="24.73046875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="F6" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="3">
+        <v>22232021</v>
+      </c>
+      <c r="E32" s="6">
+        <v>22232021</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C42" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="3">
+        <v>360</v>
+      </c>
+      <c r="B43" s="3">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="3">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
+      <c r="C45" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="3">
         <v>2</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="3">
         <v>23</v>
       </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="C50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="41"/>
+      <c r="F60" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="3">
         <v>2</v>
       </c>
-      <c r="F18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="C66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="D26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="6">
-        <v>22232021</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="D31" s="5">
-        <v>22232021</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>66</v>
-      </c>
-      <c r="I31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="D32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="D34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35">
-        <v>4</v>
-      </c>
-      <c r="F35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D39" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="5">
-        <v>2</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="D41" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="F41" t="s">
-        <v>254</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="5">
-        <v>360</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="D42" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-      <c r="F42" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="D43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="D44" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44">
-        <v>11</v>
-      </c>
-      <c r="F44" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="D45" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="D46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46" t="s">
-        <v>96</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D48" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>100</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49">
-        <v>23</v>
-      </c>
-      <c r="F49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D53" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D54" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D55" t="s">
-        <v>118</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D56" t="s">
-        <v>121</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D57" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D58" t="s">
-        <v>126</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D59" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>129</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="E66" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="D60" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D61" t="s">
-        <v>131</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>134</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D62" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>136</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D63" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>139</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>141</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D65" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
-      <c r="F65" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>197</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D66" t="s">
-        <v>168</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>170</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>250</v>
+        <v>193</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>164</v>
       </c>
       <c r="D67" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
         <v>168</v>
       </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B68"/>
-      <c r="C68"/>
+      <c r="D68" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E69"/>
+      <c r="F69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kicad-Faraday/OutputFiles/Faraday-REVC(BOM).xlsx
+++ b/Kicad-Faraday/OutputFiles/Faraday-REVC(BOM).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13665" windowHeight="5903"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13665" windowHeight="5910"/>
   </bookViews>
   <sheets>
     <sheet name="Faraday" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="259">
   <si>
     <t>PTS645SM43SMTR92_LFS</t>
   </si>
@@ -132,9 +132,6 @@
     <t>DNP</t>
   </si>
   <si>
-    <t>C15</t>
-  </si>
-  <si>
     <t>LED-IPC</t>
   </si>
   <si>
@@ -790,13 +787,22 @@
   </si>
   <si>
     <t>74HCT1G14GV,125</t>
+  </si>
+  <si>
+    <t>LQW18AN10NJ10D</t>
+  </si>
+  <si>
+    <t>490-6858-1-ND</t>
+  </si>
+  <si>
+    <t>External</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,6 +933,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1273,7 +1287,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
@@ -1322,6 +1336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1677,47 +1692,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.46484375" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.53125" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" customWidth="1"/>
-    <col min="5" max="6" width="24.73046875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="3.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="6" width="24.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1731,13 +1746,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1751,10 +1766,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -1763,7 +1778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1777,10 +1792,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -1789,7 +1804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1803,10 +1818,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -1815,7 +1830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1829,10 +1844,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -1841,7 +1856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1855,10 +1870,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -1867,7 +1882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1881,10 +1896,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -1893,7 +1908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -1907,10 +1922,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -1919,7 +1934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1933,10 +1948,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -1945,7 +1960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1959,19 +1974,19 @@
         <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H11" t="s">
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1979,25 +1994,25 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -2011,19 +2026,19 @@
         <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -2031,25 +2046,25 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -2063,19 +2078,19 @@
         <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -2089,19 +2104,19 @@
         <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="H16" t="s">
-        <v>178</v>
-      </c>
       <c r="I16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -2109,387 +2124,387 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="E17" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D18" t="s">
-        <v>5</v>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="H18" t="s">
+      <c r="B20" s="3">
         <v>6</v>
       </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="3">
-        <v>6</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="F22" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="27" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="28" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F26" s="30" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="29"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="31" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="3">
         <v>2</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="3">
-        <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="B30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="42" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="4">
+        <v>22232021</v>
+      </c>
+      <c r="E31" s="6">
+        <v>22232021</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="J31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="3">
-        <v>2</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="3">
-        <v>22232021</v>
-      </c>
-      <c r="E32" s="6">
-        <v>22232021</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="J32" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="34" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="B35" s="3">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="42" t="s">
         <v>36</v>
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -2497,242 +2512,247 @@
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="42" t="s">
         <v>36</v>
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="42" t="s">
         <v>36</v>
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="3">
         <v>2</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
       <c r="C40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="35" t="s">
+      <c r="F40" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>2</v>
+      </c>
+      <c r="B41" s="3">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" s="36" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="3">
-        <v>2</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="3">
-        <v>2</v>
+      <c r="H41" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>360</v>
       </c>
       <c r="B42" s="3">
         <v>3</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>254</v>
+        <v>85</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="36" t="s">
+      <c r="F42" s="37" t="s">
         <v>222</v>
       </c>
       <c r="H42" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="3">
-        <v>360</v>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B43" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="37" t="s">
+      <c r="F43" s="38" t="s">
         <v>223</v>
       </c>
       <c r="H43" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>88</v>
+        <v>254</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F44" s="38" t="s">
+      <c r="F44" s="39" t="s">
         <v>224</v>
       </c>
       <c r="H44" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B45" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="39" t="s">
+      <c r="F45" s="40" t="s">
         <v>225</v>
       </c>
       <c r="H45" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="F46" s="41" t="s">
         <v>226</v>
       </c>
       <c r="H46" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="3">
         <v>2</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F47" s="41" t="s">
+      <c r="F47" s="8" t="s">
         <v>227</v>
       </c>
       <c r="H47" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B48" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>191</v>
@@ -2744,408 +2764,393 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B49" s="3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F49" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="H49" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="3">
-        <v>23</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>118</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="F57" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" s="3">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="3">
-        <v>1</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B60" s="3">
-        <v>1</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E60" s="41"/>
-      <c r="F60" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="E61" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" s="3">
-        <v>2</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>55</v>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" t="s">
+        <v>164</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G66" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" t="s">
         <v>164</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>168</v>
-      </c>
-      <c r="D68" t="s">
-        <v>165</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E69"/>
-      <c r="F69"/>
+      <c r="G67" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E68"/>
+      <c r="F68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kicad-Faraday/OutputFiles/Faraday-REVC(BOM).xlsx
+++ b/Kicad-Faraday/OutputFiles/Faraday-REVC(BOM).xlsx
@@ -516,9 +516,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">AK67421-0.3 </t>
-  </si>
-  <si>
     <t>USB Cable</t>
   </si>
   <si>
@@ -567,9 +564,6 @@
     <t>LQW15AN7N5G00D</t>
   </si>
   <si>
-    <t>Hand Solder</t>
-  </si>
-  <si>
     <t>N2514-6V0C-RB-WD</t>
   </si>
   <si>
@@ -753,9 +747,6 @@
     <t>730-1053-ND</t>
   </si>
   <si>
-    <t>AE11229-ND</t>
-  </si>
-  <si>
     <t>MSH14KCT-ND</t>
   </si>
   <si>
@@ -795,7 +786,16 @@
     <t>490-6858-1-ND</t>
   </si>
   <si>
-    <t>External</t>
+    <t>B00U7U4ZDQ</t>
+  </si>
+  <si>
+    <t>Faraday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FaradayRF </t>
+  </si>
+  <si>
+    <t>Revision C</t>
   </si>
 </sst>
 </file>
@@ -939,8 +939,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1287,56 +1287,44 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="34" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="34" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="25" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" xfId="34" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1692,1467 +1680,1569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="6" width="24.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="12">
+        <v>42670</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="F10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="1">
+        <v>22232021</v>
+      </c>
+      <c r="E32" s="1">
+        <v>22232021</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="C36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="H16" t="s">
-        <v>177</v>
-      </c>
-      <c r="I16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="C39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="3">
+      <c r="C41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>2</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="3">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="3">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="3">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="4">
-        <v>22232021</v>
-      </c>
-      <c r="E31" s="6">
-        <v>22232021</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="J31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="3">
-        <v>4</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3">
-        <v>2</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="3">
-        <v>2</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>2</v>
-      </c>
-      <c r="B41" s="3">
-        <v>3</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>360</v>
       </c>
       <c r="B42" s="3">
         <v>3</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>360</v>
+      </c>
+      <c r="B43" s="3">
+        <v>3</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="3">
+        <v>10</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="37" t="s">
+      <c r="F45" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H42" s="1">
+      <c r="G45" s="6">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="F46" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H43" s="1">
+      <c r="G46" s="6">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="3">
-        <v>10</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F44" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F45" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B46" s="3">
-        <v>2</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F46" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="B47" s="3">
         <v>2</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D48" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E48" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="3">
+        <v>23</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="3">
-        <v>1</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="3">
-        <v>23</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="3">
-        <v>1</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51" s="3">
-        <v>1</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" s="3">
-        <v>1</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="3">
-        <v>1</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="3">
-        <v>1</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="3">
-        <v>1</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="3">
-        <v>1</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="3">
-        <v>1</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" s="3">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B59" s="3">
-        <v>1</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="F68" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F59" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" s="3">
-        <v>1</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" s="3">
-        <v>1</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" s="3">
-        <v>1</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" s="3">
-        <v>1</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B64" s="3">
-        <v>1</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65" s="3">
-        <v>2</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>192</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>163</v>
-      </c>
-      <c r="D66" t="s">
-        <v>164</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>166</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>167</v>
-      </c>
-      <c r="D67" t="s">
-        <v>164</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E68"/>
-      <c r="F68"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E69"/>
+      <c r="F69"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Kicad-Faraday/OutputFiles/Faraday-REVC(BOM).xlsx
+++ b/Kicad-Faraday/OutputFiles/Faraday-REVC(BOM).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="263">
   <si>
     <t>PTS645SM43SMTR92_LFS</t>
   </si>
@@ -796,6 +796,18 @@
   </si>
   <si>
     <t>Revision C</t>
+  </si>
+  <si>
+    <t>Assembly Line Items</t>
+  </si>
+  <si>
+    <t>Placement Count</t>
+  </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
+    <t>Through-Hole</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1299,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1324,6 +1336,21 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" xfId="34" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" xfId="34" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="27" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1680,25 +1707,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.265625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>257</v>
       </c>
@@ -1716,7 +1743,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>139</v>
       </c>
@@ -1740,7 +1767,7 @@
       </c>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1789,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1788,7 +1815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +1841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1840,7 +1867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1866,7 +1893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1892,7 +1919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1918,7 +1945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1944,7 +1971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1970,7 +1997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1996,7 +2023,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2022,7 +2049,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2048,7 +2075,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,7 +2101,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -2100,7 +2127,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2126,7 +2153,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2146,7 +2173,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -2168,7 +2195,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -2190,7 +2217,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -2209,7 +2236,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -2231,7 +2258,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -2253,7 +2280,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -2275,7 +2302,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -2297,7 +2324,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -2319,7 +2346,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -2341,7 +2368,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -2360,7 +2387,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -2382,7 +2409,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -2401,7 +2428,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>249</v>
       </c>
@@ -2420,7 +2447,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -2442,7 +2469,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -2464,7 +2491,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -2486,7 +2513,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -2508,7 +2535,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -2527,7 +2554,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2546,7 +2573,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -2565,7 +2592,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -2584,7 +2611,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
@@ -2606,7 +2633,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -2628,7 +2655,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -2652,7 +2679,7 @@
       </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>360</v>
       </c>
@@ -2676,7 +2703,7 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -2700,7 +2727,7 @@
       </c>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -2724,7 +2751,7 @@
       </c>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
@@ -2748,7 +2775,7 @@
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
@@ -2772,7 +2799,7 @@
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>93</v>
       </c>
@@ -2796,7 +2823,7 @@
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>95</v>
       </c>
@@ -2820,7 +2847,7 @@
       </c>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>36</v>
       </c>
@@ -2839,7 +2866,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>99</v>
       </c>
@@ -2861,7 +2888,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -2883,7 +2910,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -2905,7 +2932,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -2927,7 +2954,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>109</v>
       </c>
@@ -2949,7 +2976,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>112</v>
       </c>
@@ -2971,7 +2998,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>115</v>
       </c>
@@ -2993,7 +3020,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
@@ -3015,7 +3042,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
@@ -3037,7 +3064,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>252</v>
       </c>
@@ -3059,7 +3086,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>125</v>
       </c>
@@ -3081,7 +3108,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>128</v>
       </c>
@@ -3103,7 +3130,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>130</v>
       </c>
@@ -3125,7 +3152,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>132</v>
       </c>
@@ -3147,7 +3174,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>135</v>
       </c>
@@ -3169,7 +3196,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>137</v>
       </c>
@@ -3191,7 +3218,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>190</v>
       </c>
@@ -3213,7 +3240,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>165</v>
       </c>
@@ -3235,9 +3262,47 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E69"/>
-      <c r="F69"/>
+    <row r="69" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="1"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" s="18">
+        <f>COUNTA(A3:A68)-COUNTA(A68,A67,A50,A39,A38,A36,A37,A34,A30,A31,A32,A21,A18)</f>
+        <v>53</v>
+      </c>
+      <c r="B71" s="17">
+        <f>SUM(B3:B68)-SUM(B68,B67,B50,B39,B38,B37,B36,B35,B32,B31,B30,B18,B21)</f>
+        <v>118</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B72" s="17">
+        <f>SUM(B35)</f>
+        <v>1</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>262</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
